--- a/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/Porcentaje de población expuesta a niveles de MP superiores de los recomendados por la OMS 1990-2016.xlsx
+++ b/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/Porcentaje de población expuesta a niveles de MP superiores de los recomendados por la OMS 1990-2016.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Aire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos y Proyecciones Cambio Climático\Vida Humana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4833ABDC-5FB8-4AD5-931F-689E7F98C0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA893F37-8225-4777-B509-369F052CDFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1567,7 +1567,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2106,14 +2106,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Porcentaje_Exposicion_PM2.5_MUNDO" displayName="Porcentaje_Exposicion_PM2.5_MUNDO" ref="A1:E2179" totalsRowShown="0">
-  <autoFilter ref="A1:E2179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Porcentaje_Exposicion_PM2.5_MUNDO" displayName="Porcentaje_Exposicion_PM2.5_MUNDO" ref="A1:E2179" totalsRowShown="0">
+  <autoFilter ref="A1:E2179" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="País"/>
-    <tableColumn id="6" name="País Español"/>
-    <tableColumn id="2" name="Código País"/>
-    <tableColumn id="3" name="Año"/>
-    <tableColumn id="4" name="Porcentaje de la Población Expuesta a Niveles de PM 2.5 Superiores a los Recomendados por la OMS (%)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="País"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="País Español"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Código País"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Año"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Porcentaje de la Población Expuesta a Niveles de PM 2.5 Superiores a los Recomendados por la OMS (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2415,11 +2415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
